--- a/CascadeData.xlsx
+++ b/CascadeData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,25 +455,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5423728813559322</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3559322033898305</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6271186440677966</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -487,25 +487,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -519,25 +519,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -551,63 +551,63 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36</v>
+        <v>9.417000000000243</v>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>8.752000000000113</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>4.611500000000164</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>3.010000000000173</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>3.010000000000173</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>3.010000000000173</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>3.010000000000173</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.010000000000173</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.010000000000173</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.010000000000173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1016949152542373</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -650,28 +650,28 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -679,60 +679,60 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>12.75499999999913</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>12.2685000000007</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>7.999499999999605</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>8.160000000000194</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8.875500000000139</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>9.264500000000339</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>9.599999999999913</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>11.22750000000066</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>9.182499999999377</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.228499999999912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -743,28 +743,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -775,28 +775,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -807,60 +807,60 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>10.36050000000035</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>8.350999999999935</v>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>8.223499999999902</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>9.085000000000111</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>9.114999999999782</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7.362999999999849</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>10.28650000000062</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.08249999999971</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.200500000000236</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.200500000000236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2372881355932203</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -871,28 +871,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -903,19 +903,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -935,57 +935,57 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29</v>
+        <v>7.59400000000008</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>9.1049999999998</v>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>6.168999999999858</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>6.562499999999845</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>4.804000000000165</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4.670500000000278</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.723500000000286</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.863000000000342</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.473500000000327</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.473500000000327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2033898305084746</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6101694915254238</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2372881355932203</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3728813559322034</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -999,25 +999,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1063,34 +1063,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>9.445500000000125</v>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>7.80750000000014</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>11.17549999999983</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>8.531000000000041</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>2.976500000000161</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.976500000000161</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.976500000000161</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.976500000000161</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.976500000000161</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.976500000000161</v>
       </c>
     </row>
     <row r="22">
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3220338983050847</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1016949152542373</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8813559322033898</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1127,22 +1127,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1159,22 +1159,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1191,57 +1191,57 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>36</v>
+        <v>11.95699999999923</v>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>10.20800000000017</v>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>8.318500000000485</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>8.883000000000161</v>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>8.43349999999969</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>2.894500000000134</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.894500000000134</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.894500000000134</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.894500000000134</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.894500000000134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1186440677966102</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4576271186440678</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4067796610169492</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7457627118644068</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1255,25 +1255,25 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1287,25 +1287,25 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1319,34 +1319,34 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38</v>
+        <v>8.301999999999953</v>
       </c>
       <c r="B29" t="n">
-        <v>41</v>
+        <v>9.156499999999559</v>
       </c>
       <c r="C29" t="n">
-        <v>43</v>
+        <v>7.844999999999675</v>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>4.212500000000385</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>4.212500000000385</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>4.212500000000385</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>4.212500000000385</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.212500000000385</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.212500000000385</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.212500000000385</v>
       </c>
     </row>
     <row r="30">
@@ -1354,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3389830508474576</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1383,22 +1383,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1447,182 +1447,182 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>35</v>
+        <v>7.833499999999933</v>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>5.045000000000126</v>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>8.675499999999657</v>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>6.968500000000049</v>
       </c>
       <c r="E33" t="n">
-        <v>39</v>
+        <v>4.457000000000249</v>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>4.457000000000249</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4.457000000000249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.457000000000249</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.457000000000249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4.457000000000249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1694915254237288</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1694915254237288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8135593220338984</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8135593220338984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>30</v>
+      </c>
+      <c r="B36" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29</v>
+      </c>
+      <c r="D36" t="n">
         <v>19</v>
       </c>
-      <c r="B36" t="n">
-        <v>15</v>
-      </c>
-      <c r="C36" t="n">
-        <v>17</v>
-      </c>
-      <c r="D36" t="n">
-        <v>22</v>
-      </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G36" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40</v>
+        <v>10.85000000000045</v>
       </c>
       <c r="B37" t="n">
-        <v>34</v>
+        <v>8.380999999999528</v>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>11.30800000000009</v>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>8.81249999999987</v>
       </c>
       <c r="E37" t="n">
-        <v>35</v>
+        <v>5.679000000000261</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>9.219999999999494</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>13.33299999999988</v>
       </c>
       <c r="H37" t="n">
-        <v>16</v>
+        <v>4.862000000000248</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>4.095000000000348</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>3.169000000000226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.05084745762711865</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1639,22 +1639,22 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="n">
+        <v>26</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>34</v>
+      </c>
+      <c r="F39" t="n">
         <v>29</v>
-      </c>
-      <c r="B39" t="n">
-        <v>33</v>
-      </c>
-      <c r="C39" t="n">
-        <v>32</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1671,22 +1671,22 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1703,34 +1703,34 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29</v>
+        <v>10.57800000000041</v>
       </c>
       <c r="B41" t="n">
-        <v>33</v>
+        <v>13.41450000000043</v>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>8.506000000000114</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>11.48199999999835</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>11.41249999999944</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>6.189500000000264</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.730500000000079</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.730500000000079</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.730500000000079</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.730500000000079</v>
       </c>
     </row>
   </sheetData>
